--- a/src/attributions/attributions_ig_traj_180.xlsx
+++ b/src/attributions/attributions_ig_traj_180.xlsx
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>-0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N2" t="n">
         <v>-0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W2" t="n">
         <v>-0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF2" t="n">
         <v>-0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO2" t="n">
         <v>-0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX2" t="n">
         <v>-0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG2" t="n">
         <v>-0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP2" t="n">
         <v>-0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY2" t="n">
         <v>-0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH2" t="n">
         <v>-0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ2" t="n">
         <v>-0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI2" t="n">
         <v>-0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR2" t="n">
         <v>-0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ2" t="n">
         <v>-0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB2" t="n">
         <v>-0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK2" t="n">
         <v>-0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT2" t="n">
         <v>-0</v>
@@ -1573,25 +1573,25 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4153433911471169</v>
+        <v>-0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.3946316326473421</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.212363355116511</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01149927258610587</v>
+        <v>-0.06592602029635787</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>-0.2809196178285841</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
         <v>-0</v>
@@ -1600,49 +1600,49 @@
         <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1882222661389013</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.148269403920821</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05412474003330983</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.05409758730295585</v>
+        <v>-0.0167909340739812</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>-0.06130383441401731</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
       </c>
       <c r="R3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03295117860525201</v>
+        <v>-0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0.05647182001378358</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.07718102381435356</v>
+        <v>-0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.2720718087497009</v>
+        <v>-0.09422549560767313</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.003942275102318556</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1654,130 +1654,130 @@
         <v>-0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.05362378095477782</v>
+        <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0</v>
+        <v>0.08567746279316305</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.09550979973469935</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1831926454111975</v>
+        <v>0.1289855301294916</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0.03848504557963029</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1622415515293233</v>
+        <v>-0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.06737736153840614</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.04233165931735761</v>
+        <v>-0</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.07376578312738316</v>
+        <v>0.02815831131503914</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0</v>
+        <v>-0.1607463584730553</v>
       </c>
       <c r="AQ3" t="n">
         <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.387205209243298</v>
+        <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>0.4380858910691841</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.2511539174957307</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.03591936577154448</v>
+        <v>-0.1310788665910175</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0.375077329769664</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.1341342067796577</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0.1647518705808296</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.09584830660454345</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.05702697942644974</v>
+        <v>-0.04851117025015965</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>-0.1065995765996841</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.09133198937003512</v>
+        <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>0.03007462345848597</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.09479318963246575</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.2296046563283316</v>
+        <v>-0.02259004500026864</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0.02468364845416601</v>
       </c>
       <c r="BR3" t="n">
         <v>-0</v>
@@ -1786,52 +1786,52 @@
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.2487661406551373</v>
+        <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>0.148695297018421</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.07310774522156038</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.03294526382820739</v>
+        <v>-0.08544677695275743</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0</v>
+        <v>-0.09442065481909999</v>
       </c>
       <c r="CA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB3" t="n">
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0.1734587011943587</v>
+        <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.1538988073826628</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.06470169386759567</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.001759511548776212</v>
+        <v>0.008681192040110097</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>0.1084018586188021</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.01957220960555847</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>-0.02118466379680954</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0.03143464072914199</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>-0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.1858147177071237</v>
+        <v>0.035078217924226</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>-0.02082180164832465</v>
       </c>
       <c r="CS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT3" t="n">
         <v>-0</v>
@@ -1870,25 +1870,25 @@
         <v>-0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.1488352652787334</v>
+        <v>-0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.1318224180743149</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.07487026390776801</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.07578273796493575</v>
+        <v>-0.003175587173527037</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0</v>
+        <v>0.1239511785673071</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
         <v>-0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.08319595926450704</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.04720204965234161</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.02327336343364826</v>
+        <v>-0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.02515794166923537</v>
+        <v>0.03354403072157864</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>-0.001212473509429661</v>
       </c>
       <c r="DK3" t="n">
         <v>-0</v>
@@ -1921,163 +1921,163 @@
         <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.004707231651675917</v>
+        <v>-0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0.0143555773277746</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.06526103429061458</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
         <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.04576178591956238</v>
+        <v>0.08786994297265861</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>-0.01597031312472365</v>
       </c>
       <c r="DT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.003010821675203287</v>
+        <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>0.09709923504887749</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.001670712277662586</v>
+        <v>-0</v>
       </c>
       <c r="DZ3" t="n">
         <v>-0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.1786718108545512</v>
+        <v>-0.02930254492052927</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0</v>
+        <v>0.03158669474083305</v>
       </c>
       <c r="EC3" t="n">
         <v>-0</v>
       </c>
       <c r="ED3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE3" t="n">
         <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.2807123087474687</v>
+        <v>-0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.1496793145813296</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.09092082126626942</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.04561303075600943</v>
+        <v>0.005435327415342472</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>0.11228485724669</v>
       </c>
       <c r="EL3" t="n">
         <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
         <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.0732987011557833</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.09417150050969911</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.0888460370039194</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.05994922134627712</v>
+        <v>0.009751862133375139</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0.08879479376476841</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0.1623916449055259</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.1430247183184711</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.07389550373808715</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.03641355570278709</v>
+        <v>0.006389788317465739</v>
       </c>
       <c r="FC3" t="n">
-        <v>0</v>
+        <v>0.1210252600750234</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
         <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0.1373811574441783</v>
+        <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>-0.04454070884138354</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.05178652944192851</v>
+        <v>0</v>
       </c>
       <c r="FJ3" t="n">
         <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.06480357524712906</v>
+        <v>-0.07767435644122946</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>0.1389940447226094</v>
       </c>
       <c r="FM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
         <v>0</v>
@@ -2086,40 +2086,40 @@
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0.04876653176185904</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.1739057312342586</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.03655427269585097</v>
+        <v>-0</v>
       </c>
       <c r="FS3" t="n">
         <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.08238277022143406</v>
+        <v>0.0466153331720149</v>
       </c>
       <c r="FU3" t="n">
-        <v>0</v>
+        <v>0.05777807451534921</v>
       </c>
       <c r="FV3" t="n">
         <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.07367063883581096</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0.08780219215488043</v>
       </c>
       <c r="GA3" t="n">
-        <v>-0.05480061994270641</v>
+        <v>-0</v>
       </c>
       <c r="GB3" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0</v>
+        <v>-0.07227165179431035</v>
       </c>
       <c r="GE3" t="n">
         <v>-0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -2331,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
@@ -2466,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
@@ -2655,10 +2655,10 @@
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
@@ -2711,76 +2711,76 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3674611247683962</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.07388716353878021</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.06441078146008332</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1088861210911897</v>
+        <v>-0.0141717447996648</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.0288104477691301</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>-0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1696455263044941</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.02838974112164897</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.060714645936476</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1056754696192068</v>
+        <v>-0.007006899065950331</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>-0.02034494688762186</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>-0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0281486964694155</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>0.003207426028255825</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.03989071042724884</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.2479688157524079</v>
+        <v>-0.006248657574892328</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.002342800815557814</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.04628019574826153</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.01502661393048315</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.04212351400685831</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01148862768870617</v>
+        <v>0.02400958917916184</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0.00112415518297495</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -2819,133 +2819,133 @@
         <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1134087314101353</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.004379945983964756</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.03007015677725713</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.06455209572977975</v>
+        <v>-0.0107430326722887</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>-0.01774333591300801</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
         <v>-0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.272421622367907</v>
+        <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.08235485974769058</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.07105275122095615</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.01961272813011192</v>
+        <v>-0.004610945355186407</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>-0.005966904268427781</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.116108872664174</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.03343314225178473</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.06925731696540664</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.0388165684032707</v>
+        <v>-0.02011795153918684</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.04935756212806649</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
         <v>-0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.05009243896972015</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.03105090823141294</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.06400028477960461</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
         <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.1773729719222688</v>
+        <v>0.02664615539699716</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0.005038896263161241</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.1705799537427349</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.0300067164309705</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0.02695299370137811</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.003424926652778826</v>
+        <v>0.004124662659737321</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0</v>
+        <v>-0.004159189578353859</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
@@ -2954,157 +2954,157 @@
         <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.1296523442600721</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.01974696210371813</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.04369376420071533</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0435859770977362</v>
+        <v>-0.0004347217090593042</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0.01905846306042286</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.0167622632587307</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0.01258484887888458</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.002882536393290341</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
         <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.1391679493667556</v>
+        <v>-0.007313188534045675</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.00224355045054758</v>
       </c>
       <c r="CS5" t="n">
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.1126591362889198</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.01492600680608253</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.04593746360353992</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
         <v>-0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.01593977776869902</v>
+        <v>0.003829499045662475</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>0.01832493880225704</v>
       </c>
       <c r="DB5" t="n">
         <v>-0</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.00501949607329203</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.005466688445090274</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.02730175869983217</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.06227098732662433</v>
+        <v>0.02396824458529032</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0.004172005679171958</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
         <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.02316455249973227</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.003608412693284221</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.007311232313648558</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.0336335096659283</v>
+        <v>-0.0002445450216749649</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.006232791323221483</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
         <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>-0.001179817959246086</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.01365031245837751</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.01093943158481245</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.09193114245863561</v>
+        <v>-0.0313179586632102</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>0.0001259619733323168</v>
       </c>
       <c r="EC5" t="n">
         <v>-0</v>
@@ -3113,166 +3113,166 @@
         <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.1991031982323261</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.01607102120457339</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.04080665458439862</v>
+        <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.07785459498676271</v>
+        <v>0.0009718372718214855</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.01150428676812673</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.04644442106387255</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.01549677501729317</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.04504171083614805</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
         <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.1062670849656786</v>
+        <v>0.008307000016785811</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0.004714618752294015</v>
       </c>
       <c r="EU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.1121117252062616</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.01811974302669769</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.04544986517885185</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
         <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.0003125369573305512</v>
+        <v>0.003886252277332868</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>0.02036555506717335</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0.1323057710372115</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.004498922257989581</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.04003728858872611</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.02466148629727138</v>
+        <v>-0.02621416646370547</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0.0194567601979027</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0.00849215803867657</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.001593483290088892</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.01952828913189554</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>-8.754067651688526e-05</v>
+        <v>0.0006294771633811876</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.007280703038860276</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.09700019022874554</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.02723737104018058</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0.002644576570528346</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0.004785294937264746</v>
       </c>
       <c r="GE5" t="n">
         <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
         <v>0</v>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4663203365299414</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.1381008821413305</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1351098652765121</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.05139003999256347</v>
+        <v>-0.01398827873620457</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>-0.09572866747409403</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3304,25 +3304,25 @@
         <v>-0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2718139088028417</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.06784071283693728</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.1235345772275984</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.109240776150373</v>
+        <v>-0.006918095895911656</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.0689944289580823</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -3331,82 +3331,82 @@
         <v>-0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05698091637810367</v>
+        <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>0.01167136781555521</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.09443292492203578</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.2928574388019445</v>
+        <v>-0.01195225718677575</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0.005642782042439368</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.02728590636109184</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.02597815250404285</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.05839182326426508</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.04707402398773919</v>
+        <v>0.01911449586286601</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>-0.002245430356996549</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.1426952937980618</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.02403754681358587</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.0336910292547026</v>
+        <v>-0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.03375169472253434</v>
+        <v>-0.000259284990164806</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.03932477940839038</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>-0</v>
@@ -3415,25 +3415,25 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.3211262894710895</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.147786030807902</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.1800352654145765</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.02399320772983522</v>
+        <v>-0.006163879984179216</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.08074198143712258</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
@@ -3442,49 +3442,49 @@
         <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.1459707589435616</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0</v>
+        <v>0.05836677897635255</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.07976910692105912</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.03717700932218652</v>
+        <v>-0.0399649954720321</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.07966845522310785</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK6" t="n">
         <v>-0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.05238488324144367</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.05186674826513343</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.0731130429114889</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.2329260277179458</v>
+        <v>0.02683565442064695</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>0.002119205177757018</v>
       </c>
       <c r="BR6" t="n">
         <v>-0</v>
@@ -3496,52 +3496,52 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.2129514856609986</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.05498766095736696</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0.06702865960335687</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.008349813896832653</v>
+        <v>0.002482074509836902</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>-0.02450828240155205</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>-0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.155335918990437</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.03600975489861988</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.0560539592981569</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
         <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.03155373647528602</v>
+        <v>-0.00215493584390315</v>
       </c>
       <c r="CI6" t="n">
-        <v>-0</v>
+        <v>0.03893896496230512</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
@@ -3550,49 +3550,49 @@
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.00769863134686759</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0.02170316389033716</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.005341438252740363</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
         <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.1555140961508788</v>
+        <v>0.009322486861813226</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.005785699683496837</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.1306998609875605</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.02729455926140279</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.05782078999815207</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.05512802296265167</v>
+        <v>0.003890061416221269</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>0.03886222845266411</v>
       </c>
       <c r="DB6" t="n">
         <v>0</v>
@@ -3601,55 +3601,55 @@
         <v>-0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.02933119241242672</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.01161070871940018</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.02535999316930519</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.004936057233189828</v>
+        <v>0.00533237135164718</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0.004031256923012375</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.02700792690017126</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.006898984010103907</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.002831945284873323</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
         <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.05622419369656594</v>
+        <v>0.001202246061600821</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>-0.01409267270881694</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
@@ -3658,106 +3658,106 @@
         <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.002596483516015287</v>
+        <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>0.01440852751102766</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0.0119334603185576</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.1314709427452066</v>
+        <v>-0.03189625654001364</v>
       </c>
       <c r="EB6" t="n">
-        <v>0</v>
+        <v>0.007468671337127056</v>
       </c>
       <c r="EC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.2566007831650851</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.02313434828604915</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.06644217928773007</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.08850375130240497</v>
+        <v>0.005681620455850726</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.02832980807784578</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
         <v>0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.05321967639552137</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.02553322888942734</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.04178523256489625</v>
+        <v>-0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.06553659406810798</v>
+        <v>0.012016292862219</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.02288726616151082</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.1303856671408499</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.03039119344941865</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.05735550542780257</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
         <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.0283078253571634</v>
+        <v>0.003226810716905345</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0</v>
+        <v>0.03825915489089918</v>
       </c>
       <c r="FD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE6" t="n">
         <v>0</v>
@@ -3766,76 +3766,76 @@
         <v>0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0.1350662867691568</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>-0.01530162531834849</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.04774055321234142</v>
+        <v>0</v>
       </c>
       <c r="FJ6" t="n">
         <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.02617650532426017</v>
+        <v>-0.02260446352540697</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.02302286987969983</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0.01576025446152185</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0.006205959870159494</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.03790611954012466</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
         <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.001817292742024813</v>
+        <v>0.002766836911735763</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.02279735223648651</v>
       </c>
       <c r="FV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.091260285270939</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>-0.02963664023260407</v>
       </c>
       <c r="GA6" t="n">
-        <v>-0.04822548059726169</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>-0.004036107455184028</v>
       </c>
       <c r="GE6" t="n">
         <v>-0</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -3930,10 +3930,10 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -3984,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -4011,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE7" t="n">
         <v>0</v>
@@ -4038,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
@@ -4065,10 +4065,10 @@
         <v>0</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
@@ -4092,10 +4092,10 @@
         <v>0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO7" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP7" t="n">
         <v>0</v>
@@ -4254,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH7" t="n">
         <v>0</v>
@@ -4281,10 +4281,10 @@
         <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ7" t="n">
         <v>0</v>
@@ -4308,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ7" t="n">
         <v>0</v>
@@ -4335,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI7" t="n">
         <v>0</v>
@@ -4362,10 +4362,10 @@
         <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR7" t="n">
         <v>0</v>
@@ -4418,25 +4418,25 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4897626186160729</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.3208916208819244</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1173903766213471</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-0.1163431041176946</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008190556933965679</v>
+        <v>-0.06487482427222858</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>-0.156764072141536</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.003781672813409981</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>-0</v>
@@ -4445,25 +4445,25 @@
         <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.424146869317739</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0.219548707335111</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.106111442950415</v>
+        <v>-0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.08799137320255879</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.1054486722935739</v>
+        <v>-0.03367975009408868</v>
       </c>
       <c r="O8" t="n">
-        <v>-0</v>
+        <v>-0.1069297419698214</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.06192842712169649</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -4472,79 +4472,79 @@
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05143507751386622</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0.0528005409062066</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.08881045670240355</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-0.02446435983155037</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.1689435745242919</v>
+        <v>0.02866038147579631</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.01683880565583108</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.09457457436785704</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.008856333757415133</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.01411203111161188</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.06611164161391887</v>
+        <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.04796196657449078</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.02251131293184678</v>
+        <v>-0.006460755628684671</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0</v>
+        <v>-0.03025403137563325</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.106009623326901</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.1434018855227251</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.01801556336749138</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.0134850206593452</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>-0.03255825517132443</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.01043596181246218</v>
+        <v>-0.004462044340858105</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.05640348252828081</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.01305775495708315</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -4553,52 +4553,52 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.3159413376913481</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.3757620945132137</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.09977141564948533</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>-0.02909351722110718</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.01435709418558309</v>
+        <v>0.03974744580126966</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>-0.01905626718213818</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.06180126848679014</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
         <v>-0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.1564621010289248</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.05153748371056031</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.06216634568591719</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>-0.04370206324806737</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.04936660138332747</v>
+        <v>-0.08715172733107708</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0</v>
+        <v>-0.1501252614045313</v>
       </c>
       <c r="BI8" t="n">
-        <v>-0.04616509404434278</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -4607,52 +4607,52 @@
         <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.07793897631578935</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.07111802025747448</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0380465195933482</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.060095316002152</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.1626831566796666</v>
+        <v>0.06603210646361941</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0</v>
+        <v>0.008486281714154673</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.04447160310138178</v>
+        <v>0</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT8" t="n">
         <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.1920914522798798</v>
+        <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.13518260288255</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0.03879008915834605</v>
+        <v>-0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>0.01393371924335329</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.02899848522801542</v>
+        <v>-0.01949643422165039</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0</v>
+        <v>0.00336893830804614</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.01533762473734868</v>
+        <v>-0</v>
       </c>
       <c r="CB8" t="n">
         <v>-0</v>
@@ -4661,160 +4661,160 @@
         <v>-0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.1511437925547698</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.07136007163073095</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.03724703575056587</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0.01574906215017958</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.01774847208767092</v>
+        <v>-0.005600670680825057</v>
       </c>
       <c r="CI8" t="n">
-        <v>0</v>
+        <v>0.06568677071516424</v>
       </c>
       <c r="CJ8" t="n">
-        <v>-0.0101410732547428</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0.009418032326506334</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.02265942358741162</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0.004287667722646177</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>-0.05126859147897774</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.1258898489352407</v>
+        <v>-0.04231394710597701</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>-0.03476970752950347</v>
       </c>
       <c r="CS8" t="n">
-        <v>-0.05547534565419233</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.1372414281010164</v>
+        <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.06310355206130844</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.04237240299646337</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0</v>
+        <v>0.03866465342481561</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.04491227909408678</v>
+        <v>-0.0001338474370195141</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0.07473517621893541</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.007935120000437336</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
         <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.03574968556727802</v>
+        <v>-0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.00804940420421804</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.01151894188492444</v>
+        <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>0.1103226151052171</v>
       </c>
       <c r="DI8" t="n">
-        <v>-0.001187692190307207</v>
+        <v>-0.01225358673624319</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0</v>
+        <v>0.004812402496838903</v>
       </c>
       <c r="DK8" t="n">
-        <v>-0.02228333561539324</v>
+        <v>-0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.03586800229556912</v>
+        <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0.04004749300721674</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.007448457191392011</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0.02831811162087007</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.06402634277083509</v>
+        <v>0.01203873506595499</v>
       </c>
       <c r="DS8" t="n">
-        <v>0</v>
+        <v>-0.02274876869846225</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.04141269070326883</v>
+        <v>-0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.01887319241746803</v>
+        <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>0.01108826541019727</v>
       </c>
       <c r="DY8" t="n">
-        <v>-0.03281839280350404</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0</v>
+        <v>0.006038228224133157</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.02169417305388511</v>
+        <v>-0.04348706204088899</v>
       </c>
       <c r="EB8" t="n">
-        <v>0</v>
+        <v>-0.001664613684191568</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.001180810028775231</v>
+        <v>0</v>
       </c>
       <c r="ED8" t="n">
         <v>-0</v>
@@ -4823,79 +4823,79 @@
         <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0.2533768442367166</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.1066475616341592</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.04119972050044741</v>
+        <v>-0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0.0425792314473524</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.03575298883159465</v>
+        <v>0.05297235782210508</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.03551739946884803</v>
       </c>
       <c r="EL8" t="n">
-        <v>-0.06944605957936358</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
         <v>-0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.03543937981303019</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.03893262163894121</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.03094936700271069</v>
+        <v>-0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>0.004613311483062365</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.06041960749206395</v>
+        <v>-0.01117377528769775</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0</v>
+        <v>0.09445192265913731</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.018261786878639</v>
+        <v>0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.1321850907962021</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.05775602920956268</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.04307382010700095</v>
+        <v>-0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0.0197893957783723</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.02544381113549985</v>
+        <v>0.01219754613039524</v>
       </c>
       <c r="FC8" t="n">
-        <v>0</v>
+        <v>0.06056470334972061</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.01092388774591345</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
         <v>0</v>
@@ -4904,93 +4904,93 @@
         <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>-0.1366021500815985</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>0.03357005643410819</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.05671490209265585</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0.05615655923337762</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.08511477388198528</v>
+        <v>0.00709341619548931</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>0.02246563732265854</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.05808838834685506</v>
+        <v>-0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>-0.02232438530197963</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>0.002334125692857886</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.02242531423955439</v>
+        <v>0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0</v>
+        <v>0.02065070263411322</v>
       </c>
       <c r="FT8" t="n">
-        <v>-0.0006826973540534695</v>
+        <v>0.005760793812386181</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>0.008259463486815027</v>
       </c>
       <c r="FV8" t="n">
-        <v>-0.01084756492935048</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.1157191029258819</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>-0.02468107746932895</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.04557326541553922</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>-0.02304858536215524</v>
       </c>
       <c r="GC8" t="n">
         <v>-0</v>
       </c>
       <c r="GD8" t="n">
-        <v>-0</v>
+        <v>-0.01280399858658448</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.02592078609438488</v>
+        <v>0</v>
       </c>
       <c r="GF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -5014,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -5041,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5068,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -5095,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -5122,10 +5122,10 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -5149,10 +5149,10 @@
         <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
@@ -5176,10 +5176,10 @@
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
@@ -5203,10 +5203,10 @@
         <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
@@ -5230,10 +5230,10 @@
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
@@ -5257,10 +5257,10 @@
         <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
@@ -5311,10 +5311,10 @@
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
@@ -5338,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
@@ -5419,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ9" t="n">
         <v>0</v>
@@ -5446,10 +5446,10 @@
         <v>0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI9" t="n">
         <v>0</v>
@@ -5500,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR9" t="n">
         <v>0</v>
@@ -5556,22 +5556,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.3374512338283631</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.6857527549060642</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4836663476195849</v>
+        <v>-0</v>
       </c>
       <c r="D10" t="n">
         <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2267047794770082</v>
+        <v>0.282342692016595</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.9677722106386616</v>
       </c>
       <c r="G10" t="n">
         <v>-0</v>
@@ -5580,52 +5580,52 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.2213272536008367</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.3712410279014721</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4319478667500978</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
         <v>-0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.006814271870605438</v>
+        <v>0.03693816650173384</v>
       </c>
       <c r="O10" t="n">
-        <v>-0</v>
+        <v>0.6535959303830449</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.01026176276375872</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>-0.1297433298824813</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1258095098890814</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>-0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1577382562420162</v>
+        <v>0.09469125495766917</v>
       </c>
       <c r="X10" t="n">
-        <v>-0</v>
+        <v>-0.009066089204244208</v>
       </c>
       <c r="Y10" t="n">
         <v>-0</v>
@@ -5637,103 +5637,103 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.02306341790954053</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>-0.1981600954753085</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.01338137565664425</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.1430301463860092</v>
+        <v>0.02795375978538767</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.1619843611287338</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.09681527646803754</v>
+        <v>-0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>-0.1312082495265645</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.07124263580664329</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.01363852100701737</v>
+        <v>-0.1049959535863755</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.2627520270525875</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
         <v>-0</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0.1618924654684661</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>-0.4090411010607855</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.3224820961846099</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
         <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.04804518340686285</v>
+        <v>0.4138910426857901</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0</v>
+        <v>0.8385479528377904</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
         <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.07318140243438635</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>-0.3555000221799223</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.1528897673427707</v>
+        <v>-0</v>
       </c>
       <c r="BF10" t="n">
         <v>-0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.2871862519744011</v>
+        <v>0.2411508285374766</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>0.1830702261441711</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
@@ -5742,82 +5742,82 @@
         <v>-0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.05946997116872672</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>-0.1320094677405788</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.09819224819551922</v>
+        <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.1952062249310612</v>
+        <v>-0.07623388974493546</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>-0.01715263760568906</v>
       </c>
       <c r="BR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS10" t="n">
         <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0.1550333430595095</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>-0.2461729765363896</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.1425277636949345</v>
+        <v>-0</v>
       </c>
       <c r="BX10" t="n">
         <v>-0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.07517349270616684</v>
+        <v>0.09784907031151183</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>0.3009032961132183</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.1235452106317061</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>0.1793298598800277</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0.1014290204873968</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.01459961134758425</v>
+        <v>-0.03626337440398359</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0</v>
+        <v>-0.1770126500669414</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK10" t="n">
         <v>-0</v>
@@ -5826,25 +5826,25 @@
         <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.00792083608066887</v>
+        <v>-0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>0.04769379094571768</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.03682237751491407</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.07672886310795932</v>
+        <v>-0.223310558605744</v>
       </c>
       <c r="CR10" t="n">
-        <v>0</v>
+        <v>0.1184820249825426</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT10" t="n">
         <v>0</v>
@@ -5853,22 +5853,22 @@
         <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.1105304018429662</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>0.1416941413860369</v>
       </c>
       <c r="CX10" t="n">
-        <v>-0.0876366549022045</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.06413327982120239</v>
+        <v>-0.07774152007824621</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>-0.2139234004177502</v>
       </c>
       <c r="DB10" t="n">
         <v>-0</v>
@@ -5877,109 +5877,109 @@
         <v>0</v>
       </c>
       <c r="DD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.0006571277407875822</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>-0</v>
+        <v>-0.01403157085504124</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0.01680122798323437</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.02746998914068781</v>
+        <v>-0.2416128352117189</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0</v>
+        <v>0.0327518616152679</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
         <v>-0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.06855483994094622</v>
+        <v>0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>0.08484444384000164</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.06949852691235879</v>
+        <v>0</v>
       </c>
       <c r="DQ10" t="n">
         <v>0</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.06055632577521675</v>
+        <v>0.1085508709260845</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>-0.09917308294417782</v>
       </c>
       <c r="DT10" t="n">
         <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0.01545339846700418</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>0</v>
+        <v>-0.1487538142177853</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.01144040627614492</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.02615280579495632</v>
+        <v>0.2630481211720918</v>
       </c>
       <c r="EB10" t="n">
-        <v>0</v>
+        <v>-0.08243209473695506</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.1687443260897121</v>
+        <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>0.0881409872636597</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0.1335875138018837</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
         <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.04244784846126032</v>
+        <v>-0.173601433660038</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0</v>
+        <v>-0.1580440804945395</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM10" t="n">
         <v>-0</v>
@@ -5988,22 +5988,22 @@
         <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.02505645902283649</v>
+        <v>-0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>0.1196221781310832</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.09213040147451181</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
         <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.02453430935304894</v>
+        <v>0.03975846032922047</v>
       </c>
       <c r="ET10" t="n">
-        <v>0</v>
+        <v>-0.008482186453138623</v>
       </c>
       <c r="EU10" t="n">
         <v>0</v>
@@ -6012,25 +6012,25 @@
         <v>-0</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.1173207627644311</v>
+        <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>0.1628829163669889</v>
       </c>
       <c r="EZ10" t="n">
-        <v>-0.07965432567809549</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.0348139706836905</v>
+        <v>-0.07089715791729129</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0</v>
+        <v>-0.2156362879254731</v>
       </c>
       <c r="FD10" t="n">
         <v>0</v>
@@ -6039,25 +6039,25 @@
         <v>-0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.0677852515987401</v>
+        <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>0.03088381235264586</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0.09638607869863965</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
         <v>0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.06759792287611636</v>
+        <v>0.01569585759569336</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>-0.213735448174478</v>
       </c>
       <c r="FM10" t="n">
         <v>0</v>
@@ -6066,43 +6066,43 @@
         <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.02903658431432186</v>
+        <v>-0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>0.0290082368916118</v>
       </c>
       <c r="FR10" t="n">
-        <v>-0.06185747684641343</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
         <v>0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.03610563762621592</v>
+        <v>-0.1224649146716903</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0</v>
+        <v>-0.2740566712577648</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>-0.007371856351782507</v>
+        <v>0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>0.09196100203930981</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.09885325047298425</v>
+        <v>0</v>
       </c>
       <c r="GB10" t="n">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>0.0991844784232175</v>
       </c>
       <c r="GE10" t="n">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,181 +6128,181 @@
         <v>-0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.1615270145243239</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5246524716026495</v>
+        <v>-0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06921296685794834</v>
+        <v>-0.01070885593204947</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.109338184205044</v>
       </c>
       <c r="G11" t="n">
         <v>-0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.198471651869435</v>
+        <v>-0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.1313595771340432</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5161967021524507</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2037751895979129</v>
+        <v>-0.01423233274066237</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.08542934630389556</v>
       </c>
       <c r="P11" t="n">
         <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.1603393870079127</v>
+        <v>-0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.01608143805511507</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01414012965487396</v>
+        <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.0564347348969415</v>
+        <v>-0.01293035623031042</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0.01697241997376671</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.06676953679276462</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0</v>
+        <v>0.02086425668764005</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.009048033586324181</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0416914569102105</v>
+        <v>0.00979162612623757</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.01124651029354235</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.1405488344894628</v>
+        <v>-0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.01200990410812194</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.1152383766503505</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.08637236861293443</v>
+        <v>-0.01373836491737035</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.04603610050489747</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.009874641264876683</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
         <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0</v>
+        <v>0.1205156136098539</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.260628039647659</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0354220927820159</v>
+        <v>0.01037817823874026</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0</v>
+        <v>-0.06637814200711938</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.1626695723938676</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.06211353379448325</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.2375823648553212</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.04421370872361747</v>
+        <v>-0.03064754450802943</v>
       </c>
       <c r="BH11" t="n">
-        <v>0</v>
+        <v>-0.05766365572661862</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,25 +6311,25 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.000699159622758099</v>
+        <v>-0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.04951820521882568</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0.08955301461793878</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.1465299739563176</v>
+        <v>0.0189495801351908</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.02205662667937231</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
@@ -6338,52 +6338,52 @@
         <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.07732945629282366</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.06546481919370961</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.1694755256732091</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.01995182374515856</v>
+        <v>0.006814837159236022</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>-0.02667744258519817</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0.146087214812694</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-0</v>
+        <v>-0.03231734222428918</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0.1240218190755312</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.05382250840875301</v>
+        <v>-0.002928255885064448</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0</v>
+        <v>0.0252885981059847</v>
       </c>
       <c r="CJ11" t="n">
         <v>0</v>
@@ -6392,106 +6392,106 @@
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.04405393279141334</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>-0.02048746634610831</v>
       </c>
       <c r="CO11" t="n">
-        <v>-0.01045709852472052</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.06793716174694105</v>
+        <v>-0.008975240605085295</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.01050773088303282</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0.02928617695448816</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.02303516150055581</v>
       </c>
       <c r="CX11" t="n">
-        <v>-0.1040358600084298</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.01670147804107465</v>
+        <v>-0.002769022068360684</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.02913340892886617</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
         <v>-0</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.04051414973833134</v>
+        <v>-0</v>
       </c>
       <c r="DE11" t="n">
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>0.003802235984910601</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.001411379054135615</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.01656951248282747</v>
+        <v>0.003980028243718352</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.01414406217125437</v>
       </c>
       <c r="DK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL11" t="n">
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.0113431161528382</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>-0</v>
+        <v>-0.0164731963523642</v>
       </c>
       <c r="DP11" t="n">
-        <v>-0.04599194945420952</v>
+        <v>0</v>
       </c>
       <c r="DQ11" t="n">
         <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.01423845285241136</v>
+        <v>0.006881297641744024</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>0.0096819660359576</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
@@ -6500,25 +6500,25 @@
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0.07232528282766411</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
         <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0</v>
+        <v>-0.03380345539156918</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0.07662001771615187</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
         <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.001000048130978347</v>
+        <v>0.0100641543819336</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>-0.02091708712748185</v>
       </c>
       <c r="EC11" t="n">
         <v>-0</v>
@@ -6527,186 +6527,186 @@
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0.05355231238463575</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0</v>
+        <v>-0.01704889703282269</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0.1184666838730827</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.127437050500062</v>
+        <v>0.003523473553831674</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0</v>
+        <v>0.01315656354703524</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
         <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.02702927559284696</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>-0</v>
+        <v>0.007227821269118876</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0.06632338649805479</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.05307881864359505</v>
+        <v>-0.006206500387428888</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.0008112407676890839</v>
       </c>
       <c r="EU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.1209550030413836</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.02380634548904118</v>
       </c>
       <c r="EZ11" t="n">
-        <v>-0.1155146945459649</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.04170597888764705</v>
+        <v>0.002230338076717429</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0</v>
+        <v>0.03078160760470564</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.07282079030777645</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>0.0001456555643304901</v>
       </c>
       <c r="FI11" t="n">
-        <v>-0.1449506475565233</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.0549959227467474</v>
+        <v>-0.02017983054091088</v>
       </c>
       <c r="FL11" t="n">
-        <v>-0</v>
+        <v>0.03040171119330937</v>
       </c>
       <c r="FM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN11" t="n">
         <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.006114031183170723</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>-0.0142002610150063</v>
       </c>
       <c r="FR11" t="n">
-        <v>-0.07747318820703165</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.1592663823861797</v>
+        <v>0.02719602968676991</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>-0.00125106291737697</v>
       </c>
       <c r="FV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0.01111929261094161</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0</v>
+        <v>-0.01863188724123727</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.09017515885483411</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
         <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>0</v>
+        <v>-0.0368290068755822</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.09134159056445491</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.4191884759418405</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>-0.382928885619543</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.09953804587049732</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.2110272864058035</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.04634349175671918</v>
+        <v>0.2301440186739231</v>
       </c>
       <c r="F12" t="n">
         <v>-0</v>
@@ -6715,25 +6715,25 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.430531064672188</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.3035572416321162</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.1218987247540363</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.2354737311392041</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1952656201615507</v>
+        <v>0.2620265469135719</v>
       </c>
       <c r="O12" t="n">
         <v>-0</v>
@@ -6748,19 +6748,19 @@
         <v>-0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02712030000195613</v>
+        <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>-0.09315726790477447</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.05423524543483568</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>0.02407302708056691</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.1850237072352138</v>
+        <v>-0.03166680449154824</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -6775,25 +6775,25 @@
         <v>-0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.006458671931738751</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>-0.1514367949087342</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.04534843217650034</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0</v>
+        <v>-0.03866987463600772</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0406863714217727</v>
+        <v>-0.04518403326603113</v>
       </c>
       <c r="AG12" t="n">
         <v>-0</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -6802,106 +6802,106 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.09210964966874702</v>
+        <v>-0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>-0.04283878780730673</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.02102536033152159</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>0.03770660599512976</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.03975283868685899</v>
+        <v>0.06230830356608638</v>
       </c>
       <c r="AP12" t="n">
         <v>-0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.2550806700960856</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>-0.2586053951175512</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.07089281800530085</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0</v>
+        <v>-0.0002618281038161932</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.04994378556965137</v>
+        <v>-0.01233543447364582</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0780065903675366</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.003841016644337887</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.03042501575845303</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>0.2128791500119624</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.03993986594488608</v>
+        <v>0.2683607702882946</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK12" t="n">
         <v>-0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.03135199387466342</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>-0.1075470301764043</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.02696620684888794</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>-0.02151637038000631</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.1165133847827402</v>
+        <v>-0.09611209897645892</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
         <v>0</v>
@@ -6910,103 +6910,103 @@
         <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.2098412109721415</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>-0.2049023328119819</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0.0501153213525965</v>
+        <v>-0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>0.007709078885674764</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.02623502716917811</v>
+        <v>0.05245112025732594</v>
       </c>
       <c r="BZ12" t="n">
         <v>-0</v>
       </c>
       <c r="CA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC12" t="n">
         <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0.09969563567134124</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>0.08408753311861007</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.01709766486999356</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0</v>
+        <v>-0.04554594983095449</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.02356273997953114</v>
+        <v>-0.006904445042509356</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ12" t="n">
         <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL12" t="n">
         <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0.02212557819593285</v>
+        <v>-0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>0.02583128845473585</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.02372413169275883</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>-0.08416205135136776</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.0551501467141168</v>
+        <v>0.07601821158261084</v>
       </c>
       <c r="CR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS12" t="n">
         <v>0</v>
       </c>
       <c r="CT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0.08716954001093294</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>0.07537287230160822</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.02262891322584829</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0</v>
+        <v>-0.05963315900854887</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.02422181457781755</v>
+        <v>-0.009517033292096353</v>
       </c>
       <c r="DA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB12" t="n">
         <v>-0</v>
@@ -7018,19 +7018,19 @@
         <v>-0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0.005468551853281934</v>
+        <v>-0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>0.1503018251218754</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.01356236991396088</v>
+        <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>-0.05115648465885637</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.0007366754498561175</v>
+        <v>-0.005517170473168108</v>
       </c>
       <c r="DJ12" t="n">
         <v>-0</v>
@@ -7045,22 +7045,22 @@
         <v>-0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.02299481689755693</v>
+        <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>0.03812900830968702</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0.02594326343235399</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>-0</v>
+        <v>0.03324956458991746</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.0007568600546504174</v>
+        <v>0.06428602715644711</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT12" t="n">
         <v>0</v>
@@ -7072,22 +7072,22 @@
         <v>-0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0.009957709146486214</v>
+        <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.08810745553789903</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.0177494071874098</v>
+        <v>-0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0.07970864180737396</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.0371765361289073</v>
+        <v>0.04652998628241064</v>
       </c>
       <c r="EB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC12" t="n">
         <v>-0</v>
@@ -7096,22 +7096,22 @@
         <v>-0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0.143193747406588</v>
+        <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>0.04342146956249068</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.02339508706111912</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0</v>
+        <v>-0.02730459241025563</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.04913837100052245</v>
+        <v>-0.09584325332947176</v>
       </c>
       <c r="EK12" t="n">
         <v>0</v>
@@ -7123,22 +7123,22 @@
         <v>0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0.04462896068470767</v>
+        <v>-0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>0.008129794133924987</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.03363815807294441</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>0.03178802839586744</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.01370404155745633</v>
+        <v>0.03375619504440966</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
@@ -7147,109 +7147,109 @@
         <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW12" t="n">
         <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0.08873159185870311</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>0.07745395619311647</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.01776890298333076</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0</v>
+        <v>-0.05754074027670722</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.01366987486849498</v>
+        <v>-0.01275628543885563</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE12" t="n">
         <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.08692018175551784</v>
+        <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>0.06062429721940096</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.03405492967802753</v>
+        <v>0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0</v>
+        <v>0.1007745534191185</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.03559580533190135</v>
+        <v>-0.04493885673272512</v>
       </c>
       <c r="FL12" t="n">
         <v>0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
         <v>-0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.004427036069608203</v>
+        <v>-0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
+        <v>-0.01863770796458284</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.02715260102490065</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0</v>
+        <v>0.03089415646377328</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.0003202321615931391</v>
+        <v>-0.006332542932650518</v>
       </c>
       <c r="FU12" t="n">
         <v>0</v>
       </c>
       <c r="FV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.07008375179407801</v>
+        <v>0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>0.04866681256609156</v>
       </c>
       <c r="GA12" t="n">
-        <v>-0.04285456888893702</v>
+        <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>0.07294404210378624</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE12" t="n">
         <v>0</v>
@@ -7263,160 +7263,160 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.3823354561780357</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0.6135510068133436</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1949456919898863</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03655503304169393</v>
+        <v>-0.1404506949746929</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.5437280686113877</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
         <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3940247145576949</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0.5917940231158141</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.2547554899233695</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1112409825636635</v>
+        <v>-0.0648661893165955</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.5731938756302779</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
         <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.002429556581019</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>0.04669978567041489</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.0597992609028886</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.09194414777436456</v>
+        <v>-0.1130876964233671</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0.02623702714297822</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01550862091177924</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0</v>
+        <v>-0.02737363489260893</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.02295470322834553</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0438216675329177</v>
+        <v>-0.01984496662799161</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>-0.03840647895295112</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.07025340292529293</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.09886028423330699</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.02997244940168644</v>
+        <v>-0</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.04398522906244143</v>
+        <v>-0.0007080982819437974</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.09198813056478228</v>
       </c>
       <c r="AQ13" t="n">
         <v>-0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.2058611080472126</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>0.4701366775181178</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.1151945986544638</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.05629868875133692</v>
+        <v>-0.08134485938090293</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.2453207249888843</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
         <v>-0</v>
@@ -7425,25 +7425,25 @@
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.06876583544016687</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.1271631773566036</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0.0515261338639592</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.0956414760696991</v>
+        <v>-0.1573577979292298</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>-0.2076775070160965</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -7452,25 +7452,25 @@
         <v>-0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.02225338596209612</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.1625169645857042</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.04545201558976814</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.1243977193328705</v>
+        <v>-0.0002840842913196296</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0.01471145331143057</v>
       </c>
       <c r="BR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
@@ -7479,22 +7479,22 @@
         <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.172603575600162</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.251002960807876</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0.07874961716166839</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
         <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.01566149080115213</v>
+        <v>-0.07779324302853861</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.1491167636114515</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
@@ -7503,25 +7503,25 @@
         <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0.09020056238674835</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.09619484982500481</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.04629861635641926</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.01327150180857115</v>
+        <v>-0.005983946974629257</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>0.1170353776268224</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
@@ -7533,49 +7533,49 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0.0124112907389003</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>-0.002296844570857497</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.007384409796313328</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
         <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.05069560843739773</v>
+        <v>0.01947688716757867</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>-0.0277333329366079</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0.07856430903298334</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.078165653000103</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.04649318762793509</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.02400395054390735</v>
+        <v>-0.005119086727193778</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0.1222148291313387</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
@@ -7587,22 +7587,22 @@
         <v>-0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0.03141154198602373</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.04419751000356991</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.0380033000299005</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.02768612421322915</v>
+        <v>0.05595192738315061</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>-0.0005220588020141033</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
@@ -7611,106 +7611,106 @@
         <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.01751517440941092</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>0.004190261860935802</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.003892393190290337</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.01878909436789115</v>
+        <v>0.03516335817717366</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>-0.004427817906718794</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0.03730030955838937</v>
+        <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>-0.06729325639764951</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0.02670439481451114</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.008420974602813274</v>
+        <v>0.0216873409555569</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0.06129247823312712</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE13" t="n">
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0.1378421907083397</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.1088098611398633</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.04504017178440578</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.003962051773596577</v>
+        <v>0.02372881658951496</v>
       </c>
       <c r="EK13" t="n">
-        <v>0</v>
+        <v>0.1266764719776892</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0.04488138677513494</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0.0306076746217494</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.05011484248113278</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.01505136563424572</v>
+        <v>-0.01671357210572858</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.08099446088262575</v>
       </c>
       <c r="EU13" t="n">
         <v>-0</v>
@@ -7719,25 +7719,25 @@
         <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0.08193906496130722</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.07480155726387143</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.04635825891410079</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.01203559201521532</v>
+        <v>0.006526490977241166</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.1107535497989122</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
@@ -7749,67 +7749,67 @@
         <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.04242516922974637</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>-0.001968857131267095</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.0508772248286997</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
         <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.02790233444492003</v>
+        <v>-0.01099511333342135</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>0.0574792873529761</v>
       </c>
       <c r="FM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-6.529735568373899e-05</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0</v>
+        <v>0.005449267358800503</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.02794146419268055</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
         <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.0006398127295357646</v>
+        <v>-0.009599099906951195</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>0.03872360978027892</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
         <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.04557087484505316</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>0.05366609501123285</v>
       </c>
       <c r="GA13" t="n">
-        <v>-0.03637921560956876</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
         <v>0</v>
@@ -7818,24 +7818,24 @@
         <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.05965625521377316</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
         <v>-0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -7859,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -7940,10 +7940,10 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -7967,10 +7967,10 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE14" t="n">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN14" t="n">
         <v>0</v>
@@ -8048,10 +8048,10 @@
         <v>0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
@@ -8102,10 +8102,10 @@
         <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
@@ -8156,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
@@ -8183,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
@@ -8210,10 +8210,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
@@ -8237,10 +8237,10 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
@@ -8264,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ14" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ14" t="n">
         <v>0</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8428,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8536,10 +8536,10 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -8563,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -8590,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -8617,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8644,10 +8644,10 @@
         <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -8671,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG15" t="n">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8779,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
@@ -8806,10 +8806,10 @@
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8833,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -8860,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
